--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,41 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43756,6 +43756,43 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43793,6 +43793,41 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43828,6 +43828,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43865,6 +43865,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,41 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43937,6 +43937,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43972,6 +43972,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44009,6 +44009,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44046,6 +44046,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44083,6 +44083,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86153,6 +86153,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2404"/>
+  <dimension ref="A1:I2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86190,6 +86190,41 @@
         </is>
       </c>
     </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2405" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2405" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2405" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2405"/>
+  <dimension ref="A1:I2406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86225,6 +86225,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2406" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2406" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2406" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2406"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86260,6 +86260,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2407" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2407"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86295,6 +86295,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2408" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2408"/>
+  <dimension ref="A1:I2409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86332,6 +86332,41 @@
         </is>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2409" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2409" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2409"/>
+  <dimension ref="A1:I2410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86367,6 +86367,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2410" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2410" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2410" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2410"/>
+  <dimension ref="A1:I2411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86404,6 +86404,41 @@
         </is>
       </c>
     </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2411" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2411" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2411" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7131.xlsx
+++ b/data/7131.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2411"/>
+  <dimension ref="A1:I2412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86439,6 +86439,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>ACME</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2412" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
